--- a/biology/Botanique/Urtica_urens/Urtica_urens.xlsx
+++ b/biology/Botanique/Urtica_urens/Urtica_urens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Ortie brûlante, Ortie grièche ou Petite Ortie (Urtica urens) est une espèce de plantes à fleurs de la famille des Urticaceae. C'est une plante herbacée commune. On la distingue de la grande ortie par sa taille plus petite et par le fait qu’elle soit annuelle et à racine pivotante alors que la grande ortie est pérenne et à souche rampante. Elle est entièrement couverte de poils urticants et par endroits de poils plus courts, non urticants (photo 2).
 Urtica et urens ont la même racine latine uro, (ussi, ustum, urere)  « brûler, embraser, consumer, échauffer, exciter, faire souffrir, tourmenter », par allusion aux piqures brûlantes occasionnées par les poils. En outre, le mot Urtica existait en latin et désignait l’ortie.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Ortie brûlante se reconnaît à sa petite taille qui en général se situe entre 20 et 60 cm.
 Les feuilles sont opposées, ovales et ne dépassent pas 4–5 cm de long. Elles sont bordées de dents aiguës de 3–5 mm.
@@ -554,7 +568,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est une plante assez cosmopolite qui se rencontre partout en France (sauf peut-être en Charente et dans les Vosges)[réf. nécessaire].
 Elle est très largement distribuée dans les régions tempérées et dans les hautes terres des régions tropicales (Europe, Asie, Afrique et Amérique septentrionales).
@@ -587,9 +603,11 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ortie est riche en flavonoïdes, en fer, en calcium, en potassium, en magnésium ainsi qu'en vitamine A et C. Les racines contiennent des phytostérols[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ortie est riche en flavonoïdes, en fer, en calcium, en potassium, en magnésium ainsi qu'en vitamine A et C. Les racines contiennent des phytostérols.
 </t>
         </is>
       </c>
@@ -618,15 +636,17 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Ortie brûlante a, comme l’Ortie dioïque, de très nombreux usages traditionnels en alimentation, phytothérapie et agriculture.
 Jadis utilisée pour nourrir les volailles, elle continue à être employée en alimentation humaine. Les jeunes pousses et les jeunes feuilles d'ortie peuvent être consommées en salade, en soupe, en purée  et en légumes comme des épinards.
-C’est aussi une plante médicinale reconnue[2] dont les parties aériennes sont utilisées :
+C’est aussi une plante médicinale reconnue dont les parties aériennes sont utilisées :
 en usage interne (principalement sous forme de tisane) pour leurs effets diurétiques, galactagogues, antirhumatismaux dans le traitement de l’inflammation des voies urinaires, dans le traitement des calculs rénaux, des douleurs rhumatismales, et pour combattre les carences en fer.
 en usage externe (par application de lotion) dans le traitement des douleurs arthritiques et rhumatismales, dans les soins cosmétiques (contre la chute des cheveux, contre les pellicules et les cheveux gras)
 Les décoctions de racines d’ortie sont aussi utilisées dans le traitement de l’hypertrophie bénigne de la prostate.
-Le purin d’ortie[3], obtenu par macération des feuilles hachées dans de l’eau, est utilisé en agriculture biologique pour tuer ou repousser les insectes et comme fertilisant.
+Le purin d’ortie, obtenu par macération des feuilles hachées dans de l’eau, est utilisé en agriculture biologique pour tuer ou repousser les insectes et comme fertilisant.
 </t>
         </is>
       </c>
